--- a/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
+++ b/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,13 +1015,747 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
+++ b/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1702,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,17 +1714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1733,14 +1754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.83</v>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1749,13 +1792,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
+++ b/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7530</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>61.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5001</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="4">
@@ -580,378 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011364</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7954</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3558</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3523</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012426</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方价值臻选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002160</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方转型驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001536</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方君选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001181</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方改革机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>202213</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方核心竞争混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>66.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012427</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方价值臻选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>75.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.24</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,13 +1477,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,36 +1534,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>011363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>南方兴润价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>123.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>65.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3450</t>
+          <t>3.7530</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1792,36 +1572,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>南方绩优成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>61.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>78.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1216</t>
+          <t>1.5001</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1830,36 +1610,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002383</t>
+          <t>011364</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成趋势回报灵活配置混合</t>
+          <t>南方兴润价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>26.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.20</t>
+          <t>65.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.7954</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1868,120 +1648,340 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>83.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.3558</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.24</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
+++ b/数据整理/stocks/A股/创业板/300569-天能重工.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.83</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.24</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>华安国企改革主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3450</t>
+          <t>0.4865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>31.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1216</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002383</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成趋势回报灵活配置混合</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.20</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>016290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>华安国企改革主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -740,6 +757,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1477,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
